--- a/data/trans_camb/LAWTONB_2R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 6,7</t>
+          <t>-16,82; 5,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 1,11</t>
+          <t>-20,38; 1,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 14,99</t>
+          <t>-6,1; 13,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 17,25</t>
+          <t>-4,8; 16,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 13,74</t>
+          <t>-5,9; 15,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 24,4</t>
+          <t>7,54; 25,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 9,1</t>
+          <t>-6,71; 9,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 5,52</t>
+          <t>-9,0; 5,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 17,39</t>
+          <t>4,28; 17,71</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 29,35</t>
+          <t>-46,19; 21,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 5,79</t>
+          <t>-56,53; 5,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 64,49</t>
+          <t>-16,73; 57,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 69,96</t>
+          <t>-13,3; 63,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 54,38</t>
+          <t>-16,13; 63,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 107,3</t>
+          <t>20,42; 105,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 34,72</t>
+          <t>-19,52; 35,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 20,91</t>
+          <t>-26,19; 20,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 67,37</t>
+          <t>12,37; 69,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 7,36</t>
+          <t>-15,04; 8,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 1,89</t>
+          <t>-17,65; 2,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 2,79</t>
+          <t>-16,54; 2,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 19,48</t>
+          <t>-0,7; 19,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 9,0</t>
+          <t>-11,24; 9,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 12,83</t>
+          <t>-4,32; 13,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 11,58</t>
+          <t>-4,14; 11,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 3,87</t>
+          <t>-10,84; 3,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 5,76</t>
+          <t>-7,06; 5,69</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 25,45</t>
+          <t>-39,12; 29,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 7,18</t>
+          <t>-46,0; 7,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,31; 9,72</t>
+          <t>-42,31; 8,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 63,81</t>
+          <t>-1,76; 60,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 27,13</t>
+          <t>-26,43; 29,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 42,13</t>
+          <t>-9,42; 42,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 37,49</t>
+          <t>-10,91; 35,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 12,0</t>
+          <t>-28,24; 10,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 18,56</t>
+          <t>-17,71; 17,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 18,37</t>
+          <t>-6,42; 18,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 13,29</t>
+          <t>-9,12; 12,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 9,05</t>
+          <t>-11,07; 9,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 14,72</t>
+          <t>-8,35; 16,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 15,99</t>
+          <t>-8,56; 15,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 8,56</t>
+          <t>-35,06; 6,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 13,02</t>
+          <t>-4,62; 13,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 11,89</t>
+          <t>-5,16; 11,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 4,27</t>
+          <t>-26,17; 4,61</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 119,35</t>
+          <t>-25,19; 128,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,17; 91,44</t>
+          <t>-33,36; 77,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 62,43</t>
+          <t>-39,54; 67,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 52,7</t>
+          <t>-20,85; 59,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 57,19</t>
+          <t>-21,73; 53,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,73; 28,56</t>
+          <t>-85,21; 22,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 56,49</t>
+          <t>-13,65; 54,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 49,12</t>
+          <t>-14,88; 47,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-79,05; 16,5</t>
+          <t>-78,59; 17,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 14,82</t>
+          <t>-4,54; 15,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 4,0</t>
+          <t>-12,61; 4,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 7,75</t>
+          <t>-7,49; 8,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 8,04</t>
+          <t>-10,02; 8,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 8,79</t>
+          <t>-9,87; 9,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 12,27</t>
+          <t>-3,44; 11,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 8,15</t>
+          <t>-4,76; 8,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 4,58</t>
+          <t>-8,93; 4,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 7,99</t>
+          <t>-3,73; 7,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 86,88</t>
+          <t>-18,34; 88,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 26,02</t>
+          <t>-50,79; 23,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 49,35</t>
+          <t>-28,56; 55,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 27,98</t>
+          <t>-25,41; 27,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 30,7</t>
+          <t>-25,95; 29,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 43,53</t>
+          <t>-8,62; 40,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 33,36</t>
+          <t>-14,44; 32,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 17,9</t>
+          <t>-26,8; 17,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 31,96</t>
+          <t>-11,21; 31,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,95</t>
+          <t>-4,59; 6,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -0,86</t>
+          <t>-10,09; -0,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,83</t>
+          <t>-5,73; 3,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,61</t>
+          <t>-0,81; 10,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,8</t>
+          <t>-4,1; 6,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 8,4</t>
+          <t>-18,01; 8,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,01</t>
+          <t>-1,84; 6,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,86</t>
+          <t>-5,21; 2,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 4,29</t>
+          <t>-11,56; 4,48</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 26,14</t>
+          <t>-16,17; 27,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -3,53</t>
+          <t>-34,16; -1,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 16,55</t>
+          <t>-19,63; 16,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 30,04</t>
+          <t>-2,19; 31,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 21,62</t>
+          <t>-11,26; 19,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 25,71</t>
+          <t>-51,56; 25,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 20,82</t>
+          <t>-5,51; 22,39</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 6,46</t>
+          <t>-15,82; 7,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 14,3</t>
+          <t>-34,23; 14,71</t>
         </is>
       </c>
     </row>
